--- a/Documents/労金AM_管理ツール資料20250712.xlsx
+++ b/Documents/労金AM_管理ツール資料20250712.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A56FC20-09EF-4F6C-8E42-E4BED8B105A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651C69FA-3E93-4508-A9C5-0341FB51824C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="675" windowWidth="21000" windowHeight="14850" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="0" windowWidth="24435" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPOデータ" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5375" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5375" uniqueCount="902">
   <si>
     <t>columns_id</t>
   </si>
@@ -2866,31 +2866,7 @@
     <t>^([1-9]|[1][0])$</t>
   </si>
   <si>
-    <t>^[1-9]|[1][0-9]|[2][0-7])$</t>
-  </si>
-  <si>
-    <t>^[1-9]|[1][0-9]|[2][0-1])$</t>
-  </si>
-  <si>
-    <t>^[1-9]|[1-3][0-9])$</t>
-  </si>
-  <si>
-    <t>^[1-9]|[1][0-9]|[2][0-3])$</t>
-  </si>
-  <si>
     <t>^([1]|[2])$</t>
-  </si>
-  <si>
-    <t>^[1-9]|[1][0-9]|[2][0-5])$</t>
-  </si>
-  <si>
-    <t>^[1-9]|[1][0-9]|[2][0-2])$</t>
-  </si>
-  <si>
-    <t>^[1-9]|[1-4][0-9]|[5][0-5])$</t>
-  </si>
-  <si>
-    <t>^[1-4])$</t>
   </si>
   <si>
     <t>^([0][1]|[0][2])$</t>
@@ -3404,6 +3380,50 @@
   </si>
   <si>
     <t>bpo_role_kanji</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>^([1-9]|[1][0-9]|[2][0-5])$</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>^([1-9]|[1][0-9]|[2][0-2])$</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>^([1-9]|[1-4][0-9]|[5][0-5])$</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>^([1-9]|[1][0-9]|[2][0-3])$</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>^([1-4])$</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>^([1-9]|[1][0-9]|[2][0-7])$</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>^([1-9]|[1][0-9]|[2][0-1])$</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>^([1-9]|[1-3][0-9])$</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>bpo_purp_2</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>^[-][9][9][9]$</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -3863,8 +3883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.35"/>
@@ -4581,7 +4601,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>80</v>
@@ -5930,10 +5950,10 @@
         <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
@@ -5971,10 +5991,10 @@
         <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
@@ -6012,7 +6032,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>64</v>
@@ -6053,7 +6073,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>66</v>
@@ -6258,7 +6278,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>80</v>
@@ -6545,7 +6565,7 @@
         <v>99</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>101</v>
@@ -6586,7 +6606,7 @@
         <v>102</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>104</v>
@@ -7242,7 +7262,7 @@
         <v>392</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>308</v>
@@ -7264,7 +7284,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -7389,7 +7409,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -7432,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -7453,7 +7473,7 @@
         <v>408</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>320</v>
@@ -7475,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -7496,7 +7516,7 @@
         <v>412</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>323</v>
@@ -7518,7 +7538,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -7539,7 +7559,7 @@
         <v>415</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>325</v>
@@ -7580,7 +7600,7 @@
         <v>418</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>327</v>
@@ -7621,7 +7641,7 @@
         <v>421</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>329</v>
@@ -7643,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -7664,7 +7684,7 @@
         <v>424</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>331</v>
@@ -7705,7 +7725,7 @@
         <v>427</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>333</v>
@@ -7727,7 +7747,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -7789,7 +7809,7 @@
         <v>433</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>337</v>
@@ -7830,7 +7850,7 @@
         <v>436</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>339</v>
@@ -7871,7 +7891,7 @@
         <v>439</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>341</v>
@@ -7912,7 +7932,7 @@
         <v>442</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>343</v>
@@ -7994,7 +8014,7 @@
         <v>448</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>347</v>
@@ -8016,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -8141,7 +8161,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -8184,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -8227,7 +8247,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -8270,7 +8290,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="M66" s="7">
         <v>0</v>
@@ -8313,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -8356,7 +8376,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -8399,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="M69" s="7">
         <v>0</v>
@@ -8461,7 +8481,7 @@
         <v>482</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>376</v>
@@ -8502,7 +8522,7 @@
         <v>485</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>378</v>
@@ -8524,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -8567,7 +8587,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -8610,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M74" s="7">
         <v>0</v>
@@ -8653,7 +8673,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M75" s="7">
         <v>0</v>
@@ -8696,7 +8716,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M76" s="7">
         <v>0</v>
@@ -8739,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M77" s="7">
         <v>0</v>
@@ -8782,7 +8802,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M78" s="7">
         <v>0</v>
@@ -8825,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M79" s="7">
         <v>0</v>
@@ -8868,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M80" s="7">
         <v>0</v>
@@ -8911,7 +8931,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="M81" s="7">
         <v>0</v>
@@ -8954,7 +8974,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="M82" s="7">
         <v>0</v>
@@ -9188,10 +9208,10 @@
         <v>533</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="7" t="s">
@@ -9210,7 +9230,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M88" s="7">
         <v>0</v>
@@ -9354,7 +9374,7 @@
         <v>545</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>438</v>
@@ -9417,7 +9437,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="M93" s="7">
         <v>0</v>
@@ -9438,7 +9458,7 @@
         <v>551</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>444</v>
@@ -9747,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M101" s="7">
         <v>0</v>
@@ -9790,7 +9810,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M102" s="7">
         <v>0</v>
@@ -9874,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="L104" s="7" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="M104" s="7">
         <v>0</v>
@@ -9917,7 +9937,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="M105" s="7">
         <v>0</v>
@@ -9960,7 +9980,7 @@
         <v>1</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M106" s="7">
         <v>0</v>
@@ -10003,7 +10023,7 @@
         <v>1</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="M107" s="7">
         <v>0</v>
@@ -10226,7 +10246,7 @@
         <v>51</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>501</v>
@@ -10267,7 +10287,7 @@
         <v>51</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>504</v>
@@ -10308,7 +10328,7 @@
         <v>51</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>507</v>
@@ -10333,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="L115" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M115" s="7">
         <v>0</v>
@@ -10351,7 +10371,7 @@
         <v>51</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>510</v>
@@ -10376,7 +10396,7 @@
         <v>1</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M116" s="7">
         <v>0</v>
@@ -10394,7 +10414,7 @@
         <v>51</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>513</v>
@@ -10435,7 +10455,7 @@
         <v>51</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>516</v>
@@ -10460,7 +10480,7 @@
         <v>1</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="M118" s="7">
         <v>0</v>
@@ -10478,7 +10498,7 @@
         <v>51</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>519</v>
@@ -10503,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="M119" s="7">
         <v>0</v>
@@ -10521,7 +10541,7 @@
         <v>51</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>522</v>
@@ -10546,7 +10566,7 @@
         <v>1</v>
       </c>
       <c r="L120" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M120" s="7">
         <v>0</v>
@@ -10564,7 +10584,7 @@
         <v>51</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>525</v>
@@ -10589,7 +10609,7 @@
         <v>1</v>
       </c>
       <c r="L121" s="7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="M121" s="7">
         <v>0</v>
@@ -10607,7 +10627,7 @@
         <v>51</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>528</v>
@@ -10648,7 +10668,7 @@
         <v>51</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>531</v>
@@ -10689,7 +10709,7 @@
         <v>51</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>534</v>
@@ -10730,7 +10750,7 @@
         <v>51</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>537</v>
@@ -10771,7 +10791,7 @@
         <v>51</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>540</v>
@@ -10812,7 +10832,7 @@
         <v>51</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>543</v>
@@ -10853,7 +10873,7 @@
         <v>51</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>546</v>
@@ -10894,7 +10914,7 @@
         <v>51</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>549</v>
@@ -10919,7 +10939,7 @@
         <v>1</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M129" s="7">
         <v>0</v>
@@ -10937,7 +10957,7 @@
         <v>51</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>552</v>
@@ -10962,7 +10982,7 @@
         <v>1</v>
       </c>
       <c r="L130" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M130" s="7">
         <v>0</v>
@@ -10980,7 +11000,7 @@
         <v>51</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>555</v>
@@ -11021,7 +11041,7 @@
         <v>51</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>558</v>
@@ -11046,7 +11066,7 @@
         <v>1</v>
       </c>
       <c r="L132" s="7" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="M132" s="7">
         <v>0</v>
@@ -11064,7 +11084,7 @@
         <v>51</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>561</v>
@@ -11089,7 +11109,7 @@
         <v>1</v>
       </c>
       <c r="L133" s="7" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="M133" s="7">
         <v>0</v>
@@ -11107,7 +11127,7 @@
         <v>51</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>564</v>
@@ -11132,7 +11152,7 @@
         <v>1</v>
       </c>
       <c r="L134" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M134" s="7">
         <v>0</v>
@@ -11150,7 +11170,7 @@
         <v>51</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>567</v>
@@ -11175,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="L135" s="7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="M135" s="7">
         <v>0</v>
@@ -11193,7 +11213,7 @@
         <v>51</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>569</v>
@@ -11234,7 +11254,7 @@
         <v>51</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>572</v>
@@ -11275,7 +11295,7 @@
         <v>51</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>575</v>
@@ -11316,7 +11336,7 @@
         <v>51</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>578</v>
@@ -11357,10 +11377,10 @@
         <v>51</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="E140" s="7" t="s">
         <v>582</v>
@@ -11398,10 +11418,10 @@
         <v>51</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>585</v>
@@ -11439,10 +11459,10 @@
         <v>51</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>588</v>
@@ -11480,10 +11500,10 @@
         <v>51</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>591</v>
@@ -11521,10 +11541,10 @@
         <v>51</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>594</v>
@@ -11562,10 +11582,10 @@
         <v>51</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>597</v>
@@ -11603,10 +11623,10 @@
         <v>51</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>600</v>
@@ -11644,10 +11664,10 @@
         <v>51</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>603</v>
@@ -11685,10 +11705,10 @@
         <v>51</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>606</v>
@@ -11731,8 +11751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:P112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -11748,7 +11768,7 @@
     <col min="9" max="9" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="42.875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5" style="2" bestFit="1" customWidth="1"/>
@@ -12233,7 +12253,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>66</v>
@@ -12438,7 +12458,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>80</v>
@@ -12725,7 +12745,7 @@
         <v>99</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>101</v>
@@ -12766,7 +12786,7 @@
         <v>102</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>104</v>
@@ -12930,7 +12950,7 @@
         <v>114</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>115</v>
+        <v>899</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>116</v>
@@ -14315,7 +14335,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>755</v>
+        <v>896</v>
       </c>
       <c r="M63" s="5">
         <v>0</v>
@@ -14358,7 +14378,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>756</v>
+        <v>897</v>
       </c>
       <c r="M64" s="5">
         <v>0</v>
@@ -14401,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>757</v>
+        <v>898</v>
       </c>
       <c r="M65" s="5">
         <v>0</v>
@@ -14444,7 +14464,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>758</v>
+        <v>894</v>
       </c>
       <c r="M66" s="5">
         <v>0</v>
@@ -14487,7 +14507,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="M67" s="5">
         <v>0</v>
@@ -14530,7 +14550,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>760</v>
+        <v>891</v>
       </c>
       <c r="M68" s="5">
         <v>0</v>
@@ -14573,7 +14593,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>761</v>
+        <v>892</v>
       </c>
       <c r="M69" s="5">
         <v>0</v>
@@ -14616,7 +14636,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>762</v>
+        <v>893</v>
       </c>
       <c r="M70" s="5">
         <v>0</v>
@@ -14659,7 +14679,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>758</v>
+        <v>894</v>
       </c>
       <c r="M71" s="5">
         <v>0</v>
@@ -14702,7 +14722,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>763</v>
+        <v>895</v>
       </c>
       <c r="M72" s="5">
         <v>0</v>
@@ -14870,7 +14890,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="M76" s="5">
         <v>0</v>
@@ -14913,7 +14933,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="M77" s="5">
         <v>0</v>
@@ -15331,7 +15351,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="M87" s="5">
         <v>0</v>
@@ -15374,7 +15394,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="M88" s="5">
         <v>0</v>
@@ -15417,7 +15437,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="M89" s="5">
         <v>0</v>
@@ -15460,7 +15480,7 @@
         <v>1</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="M90" s="5">
         <v>0</v>
@@ -15503,7 +15523,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="M91" s="5">
         <v>0</v>
@@ -15531,7 +15551,7 @@
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5" t="s">
-        <v>54</v>
+        <v>901</v>
       </c>
       <c r="H92" s="5">
         <v>4</v>
@@ -15546,7 +15566,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>771</v>
+        <v>900</v>
       </c>
       <c r="M92" s="5">
         <v>0</v>
@@ -15630,7 +15650,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="M94" s="5">
         <v>0</v>
@@ -15673,7 +15693,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M95" s="5">
         <v>0</v>
@@ -15716,7 +15736,7 @@
         <v>1</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M96" s="5">
         <v>0</v>
@@ -15802,7 +15822,7 @@
         <v>1</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M98" s="5">
         <v>0</v>
@@ -15845,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="M99" s="5">
         <v>0</v>
@@ -15888,7 +15908,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="M100" s="5">
         <v>0</v>
@@ -15931,7 +15951,7 @@
         <v>1</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="M101" s="5">
         <v>0</v>
@@ -15974,7 +15994,7 @@
         <v>1</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="M102" s="5">
         <v>0</v>
@@ -16017,7 +16037,7 @@
         <v>1</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="M103" s="5">
         <v>0</v>
@@ -16060,7 +16080,7 @@
         <v>1</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="M104" s="5">
         <v>0</v>
@@ -16103,7 +16123,7 @@
         <v>1</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="M105" s="5">
         <v>0</v>
@@ -16146,7 +16166,7 @@
         <v>1</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="M106" s="5">
         <v>0</v>
@@ -16189,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="M107" s="5">
         <v>0</v>
@@ -16232,7 +16252,7 @@
         <v>1</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="M108" s="5">
         <v>0</v>
@@ -16275,7 +16295,7 @@
         <v>1</v>
       </c>
       <c r="L109" s="5" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="M109" s="5">
         <v>0</v>
@@ -16318,7 +16338,7 @@
         <v>1</v>
       </c>
       <c r="L110" s="5" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="M110" s="5">
         <v>0</v>
@@ -16361,7 +16381,7 @@
         <v>1</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="M111" s="5">
         <v>0</v>
@@ -16593,7 +16613,7 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>30</v>
@@ -16634,16 +16654,16 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
@@ -16681,10 +16701,10 @@
         <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
@@ -16722,10 +16742,10 @@
         <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
@@ -16766,7 +16786,7 @@
         <v>65</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
@@ -16804,10 +16824,10 @@
         <v>54</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
@@ -16845,10 +16865,10 @@
         <v>59</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11">
@@ -16886,10 +16906,10 @@
         <v>62</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11">
@@ -16927,10 +16947,10 @@
         <v>50</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11">
@@ -16978,7 +16998,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -16999,7 +17019,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -17013,7 +17033,7 @@
   <dimension ref="B2:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17227,10 +17247,10 @@
         <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
@@ -17271,7 +17291,7 @@
         <v>65</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
@@ -17309,10 +17329,10 @@
         <v>348</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
@@ -17350,10 +17370,10 @@
         <v>138</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11">
@@ -17393,7 +17413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q105"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C5" sqref="C5:P105"/>
     </sheetView>
   </sheetViews>
@@ -25347,7 +25367,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -25735,7 +25755,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -25821,7 +25841,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -26117,7 +26137,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -26245,7 +26265,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -26901,7 +26921,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -27339,7 +27359,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -27551,7 +27571,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
@@ -28107,7 +28127,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -28151,7 +28171,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -28707,7 +28727,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="M84" s="7">
         <v>0</v>
@@ -28751,7 +28771,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="M85" s="7">
         <v>0</v>
@@ -29307,7 +29327,7 @@
         <v>1</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="M98" s="7">
         <v>0</v>
@@ -29351,7 +29371,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="M99" s="7">
         <v>0</v>
@@ -29923,7 +29943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -30462,7 +30482,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="D13" s="11">
         <v>0</v>
@@ -30506,7 +30526,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -30550,7 +30570,7 @@
         <v>752</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
@@ -30599,7 +30619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -32689,7 +32711,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>755</v>
+        <v>896</v>
       </c>
       <c r="M51" s="5">
         <v>0</v>
@@ -32732,7 +32754,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>756</v>
+        <v>897</v>
       </c>
       <c r="M52" s="5">
         <v>0</v>
@@ -32775,7 +32797,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>757</v>
+        <v>898</v>
       </c>
       <c r="M53" s="5">
         <v>0</v>
@@ -32818,7 +32840,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>758</v>
+        <v>894</v>
       </c>
       <c r="M54" s="5">
         <v>0</v>
@@ -32861,7 +32883,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="M55" s="5">
         <v>0</v>
@@ -32904,7 +32926,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>760</v>
+        <v>891</v>
       </c>
       <c r="M56" s="5">
         <v>0</v>
@@ -32947,7 +32969,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>761</v>
+        <v>892</v>
       </c>
       <c r="M57" s="5">
         <v>0</v>
@@ -32990,7 +33012,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>762</v>
+        <v>893</v>
       </c>
       <c r="M58" s="5">
         <v>0</v>
@@ -33033,7 +33055,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>758</v>
+        <v>894</v>
       </c>
       <c r="M59" s="5">
         <v>0</v>
@@ -33076,7 +33098,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>763</v>
+        <v>895</v>
       </c>
       <c r="M60" s="5">
         <v>0</v>
@@ -33244,7 +33266,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="M64" s="5">
         <v>0</v>
@@ -33287,7 +33309,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="M65" s="5">
         <v>0</v>
@@ -33705,7 +33727,7 @@
         <v>1</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="M75" s="5">
         <v>0</v>
@@ -33748,7 +33770,7 @@
         <v>1</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="M76" s="5">
         <v>0</v>
@@ -33791,7 +33813,7 @@
         <v>1</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="M77" s="5">
         <v>0</v>
@@ -33834,7 +33856,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="M78" s="5">
         <v>0</v>
@@ -33877,7 +33899,7 @@
         <v>1</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="M79" s="5">
         <v>0</v>
@@ -33905,7 +33927,7 @@
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>54</v>
+        <v>901</v>
       </c>
       <c r="H80" s="5">
         <v>4</v>
@@ -33920,7 +33942,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>771</v>
+        <v>900</v>
       </c>
       <c r="M80" s="5">
         <v>0</v>
@@ -34004,7 +34026,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="M82" s="5">
         <v>0</v>
@@ -34047,7 +34069,7 @@
         <v>1</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M83" s="5">
         <v>0</v>
@@ -34090,7 +34112,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M84" s="5">
         <v>0</v>
@@ -34176,7 +34198,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M86" s="5">
         <v>0</v>
@@ -34219,7 +34241,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="M87" s="5">
         <v>0</v>
@@ -34262,7 +34284,7 @@
         <v>1</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="M88" s="5">
         <v>0</v>
@@ -34305,7 +34327,7 @@
         <v>1</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="M89" s="5">
         <v>0</v>
@@ -34348,7 +34370,7 @@
         <v>1</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="M90" s="5">
         <v>0</v>
@@ -34391,7 +34413,7 @@
         <v>1</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="M91" s="5">
         <v>0</v>
@@ -34434,7 +34456,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="M92" s="5">
         <v>0</v>
@@ -34477,7 +34499,7 @@
         <v>1</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="M93" s="5">
         <v>0</v>
@@ -34520,7 +34542,7 @@
         <v>1</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="M94" s="5">
         <v>0</v>
@@ -34563,7 +34585,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="M95" s="5">
         <v>0</v>
@@ -34606,7 +34628,7 @@
         <v>1</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="M96" s="5">
         <v>0</v>
@@ -34649,7 +34671,7 @@
         <v>1</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="M97" s="5">
         <v>0</v>
@@ -34692,7 +34714,7 @@
         <v>1</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="M98" s="5">
         <v>0</v>
@@ -34735,7 +34757,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="M99" s="5">
         <v>0</v>
@@ -35005,7 +35027,7 @@
   <dimension ref="B2:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -35181,7 +35203,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
@@ -35219,10 +35241,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
@@ -35260,10 +35282,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11">
@@ -35478,7 +35500,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
@@ -35516,10 +35538,10 @@
         <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
@@ -35598,7 +35620,7 @@
         <v>47</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>308</v>
@@ -35620,7 +35642,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -35745,7 +35767,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -35788,7 +35810,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -35809,7 +35831,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>320</v>
@@ -35831,7 +35853,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -35852,7 +35874,7 @@
         <v>67</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>323</v>
@@ -35874,7 +35896,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -35895,7 +35917,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>325</v>
@@ -35936,7 +35958,7 @@
         <v>73</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>327</v>
@@ -35977,7 +35999,7 @@
         <v>76</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>329</v>
@@ -35999,7 +36021,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -36020,7 +36042,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>331</v>
@@ -36061,7 +36083,7 @@
         <v>81</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>333</v>
@@ -36083,7 +36105,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -36145,7 +36167,7 @@
         <v>87</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>337</v>
@@ -36186,7 +36208,7 @@
         <v>90</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>339</v>
@@ -36227,7 +36249,7 @@
         <v>93</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>341</v>
@@ -36268,7 +36290,7 @@
         <v>96</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>343</v>
@@ -36350,7 +36372,7 @@
         <v>102</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>347</v>
@@ -36372,7 +36394,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -36497,7 +36519,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -36540,7 +36562,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -36583,7 +36605,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -36626,7 +36648,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -36669,7 +36691,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -36712,7 +36734,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -36755,7 +36777,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -36817,7 +36839,7 @@
         <v>135</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>376</v>
@@ -36858,7 +36880,7 @@
         <v>140</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>378</v>
@@ -36880,7 +36902,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -36923,7 +36945,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -36966,7 +36988,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -37009,7 +37031,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -37052,7 +37074,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -37095,7 +37117,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -37138,7 +37160,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -37181,7 +37203,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M45" s="7">
         <v>0</v>
@@ -37224,7 +37246,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -37267,7 +37289,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -37310,7 +37332,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -37544,10 +37566,10 @@
         <v>430</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
@@ -37566,7 +37588,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -37710,7 +37732,7 @@
         <v>442</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>438</v>
@@ -37773,7 +37795,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -37794,7 +37816,7 @@
         <v>448</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>444</v>
@@ -38103,7 +38125,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -38146,7 +38168,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -38230,7 +38252,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -38273,7 +38295,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="M71" s="7">
         <v>0</v>
@@ -38316,7 +38338,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -38359,7 +38381,7 @@
         <v>1</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -38689,7 +38711,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M81" s="7">
         <v>0</v>
@@ -38732,7 +38754,7 @@
         <v>1</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M82" s="7">
         <v>0</v>
@@ -38816,7 +38838,7 @@
         <v>1</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="M84" s="7">
         <v>0</v>
@@ -38859,7 +38881,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="M85" s="7">
         <v>0</v>
@@ -38902,7 +38924,7 @@
         <v>1</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M86" s="7">
         <v>0</v>
@@ -38945,7 +38967,7 @@
         <v>1</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="M87" s="7">
         <v>0</v>
@@ -39275,7 +39297,7 @@
         <v>1</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M95" s="7">
         <v>0</v>
@@ -39318,7 +39340,7 @@
         <v>1</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M96" s="7">
         <v>0</v>
@@ -39402,7 +39424,7 @@
         <v>1</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="M98" s="7">
         <v>0</v>
@@ -39445,7 +39467,7 @@
         <v>1</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="M99" s="7">
         <v>0</v>
@@ -39488,7 +39510,7 @@
         <v>1</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="M100" s="7">
         <v>0</v>
@@ -39531,7 +39553,7 @@
         <v>1</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="M101" s="7">
         <v>0</v>
@@ -39716,7 +39738,7 @@
         <v>586</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>582</v>
@@ -39757,7 +39779,7 @@
         <v>589</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>585</v>
@@ -39798,7 +39820,7 @@
         <v>592</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>588</v>
@@ -39839,7 +39861,7 @@
         <v>595</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>591</v>
@@ -39880,7 +39902,7 @@
         <v>598</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>594</v>
@@ -39921,7 +39943,7 @@
         <v>601</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="E111" s="7" t="s">
         <v>597</v>
@@ -39962,7 +39984,7 @@
         <v>604</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="E112" s="7" t="s">
         <v>600</v>
@@ -40000,10 +40022,10 @@
         <v>42</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>603</v>
@@ -40041,10 +40063,10 @@
         <v>42</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="E114" s="7" t="s">
         <v>606</v>
@@ -40087,7 +40109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -40303,7 +40327,7 @@
         <v>65</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
@@ -40341,10 +40365,10 @@
         <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
@@ -40382,10 +40406,10 @@
         <v>47</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
@@ -40423,10 +40447,10 @@
         <v>51</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
@@ -40464,10 +40488,10 @@
         <v>54</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11">
@@ -40505,10 +40529,10 @@
         <v>59</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11">

--- a/Documents/労金AM_管理ツール資料20250712.xlsx
+++ b/Documents/労金AM_管理ツール資料20250712.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651C69FA-3E93-4508-A9C5-0341FB51824C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34348B7C-DF56-4653-BF07-32E2789289B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="0" windowWidth="24435" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7065" yWindow="165" windowWidth="21000" windowHeight="14850" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPOデータ" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5375" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5420" uniqueCount="902">
   <si>
     <t>columns_id</t>
   </si>
@@ -3383,47 +3383,39 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>^([1-9]|[1][0-9]|[2][0-5])$</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>^([1-9]|[1][0-9]|[2][0-2])$</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>^([1-9]|[1-4][0-9]|[5][0-5])$</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>^([1-9]|[1][0-9]|[2][0-3])$</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>^([1-4])$</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>^([1-9]|[1][0-9]|[2][0-7])$</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>^([1-9]|[1][0-9]|[2][0-1])$</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>^([1-9]|[1-3][0-9])$</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>bpo_purp_2</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>^[-][9][9][9]$</t>
+    <t>0</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>5</t>
+    <t>^[1-9]|[1][0-9]|[2][0-7])$</t>
+  </si>
+  <si>
+    <t>^[1-9]|[1][0-9]|[2][0-1])$</t>
+  </si>
+  <si>
+    <t>^[1-9]|[1-3][0-9])$</t>
+  </si>
+  <si>
+    <t>^[1-9]|[1][0-9]|[2][0-3])$</t>
+  </si>
+  <si>
+    <t>^[1-9]|[1][0-9]|[2][0-5])$</t>
+  </si>
+  <si>
+    <t>^[1-9]|[1][0-9]|[2][0-2])$</t>
+  </si>
+  <si>
+    <t>^[1-9]|[1-4][0-9]|[5][0-5])$</t>
+  </si>
+  <si>
+    <t>^[1-4])$</t>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -3883,7 +3875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -11751,8 +11743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:P112"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L92" sqref="L92"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:P112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -12950,7 +12942,7 @@
         <v>114</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>116</v>
@@ -13416,8 +13408,8 @@
       <c r="I41" s="5">
         <v>0</v>
       </c>
-      <c r="J41" s="5">
-        <v>1</v>
+      <c r="J41" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K41" s="5">
         <v>1</v>
@@ -14335,7 +14327,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="M63" s="5">
         <v>0</v>
@@ -14378,7 +14370,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="M64" s="5">
         <v>0</v>
@@ -14421,7 +14413,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="M65" s="5">
         <v>0</v>
@@ -14464,7 +14456,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="M66" s="5">
         <v>0</v>
@@ -14550,7 +14542,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="M68" s="5">
         <v>0</v>
@@ -14593,7 +14585,7 @@
         <v>1</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="M69" s="5">
         <v>0</v>
@@ -14636,7 +14628,7 @@
         <v>1</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="M70" s="5">
         <v>0</v>
@@ -14679,7 +14671,7 @@
         <v>1</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="M71" s="5">
         <v>0</v>
@@ -14722,7 +14714,7 @@
         <v>1</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="M72" s="5">
         <v>0</v>
@@ -14883,8 +14875,8 @@
       <c r="I76" s="5">
         <v>0</v>
       </c>
-      <c r="J76" s="5">
-        <v>1</v>
+      <c r="J76" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K76" s="5">
         <v>1</v>
@@ -14926,8 +14918,8 @@
       <c r="I77" s="5">
         <v>0</v>
       </c>
-      <c r="J77" s="5">
-        <v>1</v>
+      <c r="J77" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K77" s="5">
         <v>1</v>
@@ -15010,8 +15002,8 @@
       <c r="I79" s="5">
         <v>0</v>
       </c>
-      <c r="J79" s="5">
-        <v>1</v>
+      <c r="J79" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K79" s="5">
         <v>1</v>
@@ -15051,8 +15043,8 @@
       <c r="I80" s="5">
         <v>0</v>
       </c>
-      <c r="J80" s="5">
-        <v>1</v>
+      <c r="J80" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K80" s="5">
         <v>1</v>
@@ -15133,8 +15125,8 @@
       <c r="I82" s="5">
         <v>0</v>
       </c>
-      <c r="J82" s="5">
-        <v>1</v>
+      <c r="J82" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K82" s="5">
         <v>1</v>
@@ -15217,8 +15209,8 @@
       <c r="I84" s="5">
         <v>0</v>
       </c>
-      <c r="J84" s="5">
-        <v>0</v>
+      <c r="J84" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K84" s="5">
         <v>1</v>
@@ -15551,7 +15543,7 @@
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5" t="s">
-        <v>901</v>
+        <v>54</v>
       </c>
       <c r="H92" s="5">
         <v>4</v>
@@ -15566,7 +15558,7 @@
         <v>1</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>900</v>
+        <v>763</v>
       </c>
       <c r="M92" s="5">
         <v>0</v>
@@ -15643,8 +15635,8 @@
       <c r="I94" s="5">
         <v>0</v>
       </c>
-      <c r="J94" s="5">
-        <v>1</v>
+      <c r="J94" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K94" s="5">
         <v>1</v>
@@ -15686,8 +15678,8 @@
       <c r="I95" s="5">
         <v>0</v>
       </c>
-      <c r="J95" s="5">
-        <v>1</v>
+      <c r="J95" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K95" s="5">
         <v>1</v>
@@ -15729,8 +15721,8 @@
       <c r="I96" s="5">
         <v>0</v>
       </c>
-      <c r="J96" s="5">
-        <v>1</v>
+      <c r="J96" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K96" s="5">
         <v>1</v>
@@ -15772,8 +15764,8 @@
       <c r="I97" s="5">
         <v>0</v>
       </c>
-      <c r="J97" s="5">
-        <v>0</v>
+      <c r="J97" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K97" s="5">
         <v>1</v>
@@ -17413,8 +17405,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q105"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:P105"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F75" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:P105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -17643,8 +17638,8 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="5">
-        <v>1</v>
+      <c r="J6" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K6" s="5">
         <v>1</v>
@@ -19177,8 +19172,8 @@
       <c r="I44" s="5">
         <v>0</v>
       </c>
-      <c r="J44" s="5">
-        <v>1</v>
+      <c r="J44" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K44" s="5">
         <v>1</v>
@@ -20042,8 +20037,8 @@
       <c r="I64" s="5">
         <v>0</v>
       </c>
-      <c r="J64" s="5">
-        <v>1</v>
+      <c r="J64" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K64" s="5">
         <v>1</v>
@@ -20086,8 +20081,8 @@
       <c r="I65" s="5">
         <v>0</v>
       </c>
-      <c r="J65" s="5">
-        <v>1</v>
+      <c r="J65" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K65" s="5">
         <v>1</v>
@@ -20172,8 +20167,8 @@
       <c r="I67" s="5">
         <v>0</v>
       </c>
-      <c r="J67" s="5">
-        <v>1</v>
+      <c r="J67" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K67" s="5">
         <v>1</v>
@@ -20214,8 +20209,8 @@
       <c r="I68" s="5">
         <v>0</v>
       </c>
-      <c r="J68" s="5">
-        <v>1</v>
+      <c r="J68" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K68" s="5">
         <v>1</v>
@@ -20298,8 +20293,8 @@
       <c r="I70" s="5">
         <v>0</v>
       </c>
-      <c r="J70" s="5">
-        <v>1</v>
+      <c r="J70" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K70" s="5">
         <v>1</v>
@@ -20820,8 +20815,8 @@
       <c r="I82" s="5">
         <v>0</v>
       </c>
-      <c r="J82" s="5">
-        <v>1</v>
+      <c r="J82" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K82" s="5">
         <v>1</v>
@@ -20864,8 +20859,8 @@
       <c r="I83" s="5">
         <v>0</v>
       </c>
-      <c r="J83" s="5">
-        <v>1</v>
+      <c r="J83" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K83" s="5">
         <v>1</v>
@@ -20908,8 +20903,8 @@
       <c r="I84" s="5">
         <v>0</v>
       </c>
-      <c r="J84" s="5">
-        <v>1</v>
+      <c r="J84" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K84" s="5">
         <v>1</v>
@@ -21839,8 +21834,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:Q76"/>
   <sheetViews>
-    <sheetView topLeftCell="G44" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:P76"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:P76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -22027,8 +22025,8 @@
       <c r="I5" s="5">
         <v>0</v>
       </c>
-      <c r="J5" s="5">
-        <v>1</v>
+      <c r="J5" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K5" s="5">
         <v>1</v>
@@ -23529,8 +23527,8 @@
       <c r="I40" s="5">
         <v>0</v>
       </c>
-      <c r="J40" s="5">
-        <v>1</v>
+      <c r="J40" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K40" s="5">
         <v>1</v>
@@ -23573,8 +23571,8 @@
       <c r="I41" s="5">
         <v>0</v>
       </c>
-      <c r="J41" s="5">
-        <v>1</v>
+      <c r="J41" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K41" s="5">
         <v>1</v>
@@ -23659,8 +23657,8 @@
       <c r="I43" s="5">
         <v>0</v>
       </c>
-      <c r="J43" s="5">
-        <v>1</v>
+      <c r="J43" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K43" s="5">
         <v>1</v>
@@ -23701,8 +23699,8 @@
       <c r="I44" s="5">
         <v>0</v>
       </c>
-      <c r="J44" s="5">
-        <v>1</v>
+      <c r="J44" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K44" s="5">
         <v>1</v>
@@ -23785,8 +23783,8 @@
       <c r="I46" s="5">
         <v>0</v>
       </c>
-      <c r="J46" s="5">
-        <v>1</v>
+      <c r="J46" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K46" s="5">
         <v>1</v>
@@ -23871,8 +23869,8 @@
       <c r="I48" s="5">
         <v>0</v>
       </c>
-      <c r="J48" s="5">
-        <v>0</v>
+      <c r="J48" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K48" s="5">
         <v>1</v>
@@ -24307,8 +24305,8 @@
       <c r="I58" s="5">
         <v>0</v>
       </c>
-      <c r="J58" s="5">
-        <v>1</v>
+      <c r="J58" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K58" s="5">
         <v>1</v>
@@ -24351,8 +24349,8 @@
       <c r="I59" s="5">
         <v>0</v>
       </c>
-      <c r="J59" s="5">
-        <v>1</v>
+      <c r="J59" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K59" s="5">
         <v>1</v>
@@ -24395,8 +24393,8 @@
       <c r="I60" s="5">
         <v>0</v>
       </c>
-      <c r="J60" s="5">
-        <v>1</v>
+      <c r="J60" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K60" s="5">
         <v>1</v>
@@ -24439,8 +24437,8 @@
       <c r="I61" s="5">
         <v>0</v>
       </c>
-      <c r="J61" s="5">
-        <v>0</v>
+      <c r="J61" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="K61" s="5">
         <v>1</v>
@@ -25130,9 +25128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:Q112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.35"/>
   <cols>
@@ -25318,8 +25314,8 @@
       <c r="I5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="7">
-        <v>1</v>
+      <c r="J5" s="7" t="s">
+        <v>901</v>
       </c>
       <c r="K5" s="7">
         <v>1</v>
@@ -25360,8 +25356,8 @@
       <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="J6" s="7">
-        <v>1</v>
+      <c r="J6" s="7" t="s">
+        <v>901</v>
       </c>
       <c r="K6" s="7">
         <v>1</v>
@@ -25488,8 +25484,8 @@
       <c r="I9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="7">
-        <v>1</v>
+      <c r="J9" s="7" t="s">
+        <v>901</v>
       </c>
       <c r="K9" s="7">
         <v>1</v>
@@ -30619,9 +30615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P105"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -30849,8 +30843,8 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="5">
-        <v>1</v>
+      <c r="J6" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K6" s="5">
         <v>1</v>
@@ -32411,8 +32405,8 @@
       <c r="I44" s="5">
         <v>0</v>
       </c>
-      <c r="J44" s="5">
-        <v>1</v>
+      <c r="J44" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K44" s="5">
         <v>1</v>
@@ -32711,7 +32705,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="M51" s="5">
         <v>0</v>
@@ -32754,7 +32748,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="M52" s="5">
         <v>0</v>
@@ -32797,7 +32791,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="M53" s="5">
         <v>0</v>
@@ -32840,7 +32834,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="M54" s="5">
         <v>0</v>
@@ -32926,7 +32920,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="M56" s="5">
         <v>0</v>
@@ -32969,7 +32963,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="M57" s="5">
         <v>0</v>
@@ -33012,7 +33006,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="M58" s="5">
         <v>0</v>
@@ -33055,7 +33049,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="M59" s="5">
         <v>0</v>
@@ -33098,7 +33092,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="M60" s="5">
         <v>0</v>
@@ -33259,8 +33253,8 @@
       <c r="I64" s="5">
         <v>0</v>
       </c>
-      <c r="J64" s="5">
-        <v>1</v>
+      <c r="J64" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K64" s="5">
         <v>1</v>
@@ -33302,8 +33296,8 @@
       <c r="I65" s="5">
         <v>0</v>
       </c>
-      <c r="J65" s="5">
-        <v>1</v>
+      <c r="J65" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K65" s="5">
         <v>1</v>
@@ -33386,8 +33380,8 @@
       <c r="I67" s="5">
         <v>0</v>
       </c>
-      <c r="J67" s="5">
-        <v>1</v>
+      <c r="J67" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K67" s="5">
         <v>1</v>
@@ -33427,8 +33421,8 @@
       <c r="I68" s="5">
         <v>0</v>
       </c>
-      <c r="J68" s="5">
-        <v>1</v>
+      <c r="J68" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K68" s="5">
         <v>1</v>
@@ -33509,8 +33503,8 @@
       <c r="I70" s="5">
         <v>0</v>
       </c>
-      <c r="J70" s="5">
-        <v>1</v>
+      <c r="J70" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K70" s="5">
         <v>1</v>
@@ -33927,7 +33921,7 @@
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>901</v>
+        <v>54</v>
       </c>
       <c r="H80" s="5">
         <v>4</v>
@@ -33942,7 +33936,7 @@
         <v>1</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>900</v>
+        <v>763</v>
       </c>
       <c r="M80" s="5">
         <v>0</v>
@@ -34019,8 +34013,8 @@
       <c r="I82" s="5">
         <v>0</v>
       </c>
-      <c r="J82" s="5">
-        <v>1</v>
+      <c r="J82" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K82" s="5">
         <v>1</v>
@@ -34062,8 +34056,8 @@
       <c r="I83" s="5">
         <v>0</v>
       </c>
-      <c r="J83" s="5">
-        <v>1</v>
+      <c r="J83" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K83" s="5">
         <v>1</v>
@@ -34105,8 +34099,8 @@
       <c r="I84" s="5">
         <v>0</v>
       </c>
-      <c r="J84" s="5">
-        <v>1</v>
+      <c r="J84" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="K84" s="5">
         <v>1</v>
